--- a/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="22410" windowHeight="10980"/>
   </bookViews>
   <sheets>
     <sheet name="ui配置|UIRes" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Prefabs/UI/LuckyReward/UILuckyReward.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UIGameTest/UIGameTest.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/UISelectionPanel/UISelectionPanel.prefab</t>
   </si>
 </sst>
 </file>
@@ -760,12 +766,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1090,10 +1099,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1419,6 +1428,34 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="4">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22410" windowHeight="10980"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="ui配置|UIRes" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -92,43 +92,13 @@
     <t>Prefabs/UI/Setting/UISetting.prefab</t>
   </si>
   <si>
-    <t>Prefabs/UI/UserLevel/UIUserLevel.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/ReStart/UIReStart.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/LevelCompleted/UILevelCompleted.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/LevelFailure/UILevelFailure.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/Prop/UIProp.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/EnterInfomation/UIEnterInfomation.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/Feedback/UIFeedback.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/Confirm/UIConfirm.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/WithdrawalRecords/UIWithdrawalRecords.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/WithdrawalAmount/UIWithdrawalAmount.prefab</t>
-  </si>
-  <si>
-    <t>Prefabs/UI/LuckyReward/UILuckyReward.prefab</t>
-  </si>
-  <si>
     <t>Prefabs/UI/UIGameTest/UIGameTest.prefab</t>
   </si>
   <si>
     <t>Prefabs/UI/UISelectionPanel/UISelectionPanel.prefab</t>
+  </si>
+  <si>
+    <t>Prefabs/UI/TimeLine/UITimeLine.prefab</t>
   </si>
 </sst>
 </file>
@@ -766,15 +736,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1099,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1275,30 +1242,30 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="B12">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" t="b">
+      <c r="C12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" t="b">
+      <c r="C13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1310,151 +1277,20 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15">
-        <v>10</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="B16">
-        <v>11</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
-        <v>13</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21">
-        <v>16</v>
-      </c>
-      <c r="C21" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
-        <v>17</v>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="4">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4">
-        <v>19</v>
-      </c>
-      <c r="C24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
+++ b/ADVGame/DesignerConfigs/Datas/UIRes.xlsx
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>21</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>22</v>
